--- a/resultados/vazao_transferencias/vazao_transferencia_rio_claro.xlsx
+++ b/resultados/vazao_transferencias/vazao_transferencia_rio_claro.xlsx
@@ -412,7 +412,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Vazão captada da ETA</t>
+          <t>Vazão captada da ETA (m³/s)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -422,7 +422,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Vazão de transferência</t>
+          <t>Vazão de transferência (m³/s)</t>
         </is>
       </c>
     </row>
@@ -11348,7 +11348,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2">
-        <v>45717</v>
+        <v>45747</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -11357,12 +11357,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>39,33</t>
+          <t>27,75</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -11372,37 +11372,32 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
+          <t>72,6</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>241,81</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>3,53</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>241,81</t>
-        </is>
-      </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>3,56</t>
-        </is>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>Q Guarat.</t>
-        </is>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>0,391</t>
         </is>
       </c>
     </row>
